--- a/results/yq_test/graph_cz/Rb2Re4/graph_cz_total.xlsx
+++ b/results/yq_test/graph_cz/Rb2Re4/graph_cz_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/graph_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_276964A6DD8A500709E1C3F0505ED87656CD6456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED797F7-9CCC-FA4F-A6AF-6AC081065C04}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_276964A6DD8A500709E1C3F0505ED87656CD6456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF140E71-FC4A-0B49-8165-E9572469053F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>file name</t>
   </si>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>gate_cycle</t>
+  </si>
+  <si>
+    <t>Enola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -233,6 +237,1414 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Graph state circuits</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DAC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.97524615246200086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97036862787399125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96551523990900145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96068587042749132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95588040186165468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95109871721268591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94634070004805759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94160623449881165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93689520525686398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93220749757231991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92754299725080458</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92290159065080468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91828316468102289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91368760679774508</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9091148050022192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90456464783804846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90003702438859423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89553182427439348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89105167020485199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88659676649246333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88216143022638371</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87773306823833941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87335092389303437</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86897837606508477</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86463417589182334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB23-D242-99BC-75C7281B777B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tetris</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.97524355180906186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95588040186165468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95110226798785835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9322206728647241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92755746703442576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89556478045191668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86468709312263869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86036193693143093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85606024138813164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86468340379891184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86036010149458986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85605658887222713</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79006251871377275</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75142995282882785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70401994355305109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72188467324390349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71828492271617927</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75900584530281079</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67974189406808716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.707557637873097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68315759139280463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64973107650330331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63681864598901949</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66288623405493952</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69001093873620911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB23-D242-99BC-75C7281B777B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Enola</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$N$2:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.97000049443767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96067428012241296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95501214376004195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94648906260293897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94177580330806299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92611566259381894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92143457251276195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90956885426704603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90058860982800604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89625517822200695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87783105792691196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87566193353191002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85934977806176804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85117930953997001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84512724442864295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83771689546452599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81856577629727501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80768219996838198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79267679632994803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79099074960543103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78284784567070398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76684069007577704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73663171653304305</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.732932977520802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73179134371835797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB23-D242-99BC-75C7281B777B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1872984704"/>
+        <c:axId val="8194031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1872984704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Qubits</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8194031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8194031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fidelity</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872984704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D411F9-4AB5-AACD-E5CE-3159C671594C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,12 +1935,12 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +1980,11 @@
       <c r="M1" t="s">
         <v>50</v>
       </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -609,8 +2024,11 @@
       <c r="M2">
         <v>5</v>
       </c>
+      <c r="N2">
+        <v>0.97000049443767</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -650,8 +2068,11 @@
       <c r="M3">
         <v>9</v>
       </c>
+      <c r="N3">
+        <v>0.96067428012241296</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -691,8 +2112,11 @@
       <c r="M4">
         <v>8</v>
       </c>
+      <c r="N4">
+        <v>0.95501214376004195</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -732,8 +2156,11 @@
       <c r="M5">
         <v>10</v>
       </c>
+      <c r="N5">
+        <v>0.94648906260293897</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -773,8 +2200,11 @@
       <c r="M6">
         <v>12</v>
       </c>
+      <c r="N6">
+        <v>0.94177580330806299</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -814,8 +2244,11 @@
       <c r="M7">
         <v>13</v>
       </c>
+      <c r="N7">
+        <v>0.92611566259381894</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -855,8 +2288,11 @@
       <c r="M8">
         <v>13</v>
       </c>
+      <c r="N8">
+        <v>0.92143457251276195</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -896,8 +2332,11 @@
       <c r="M9">
         <v>14</v>
       </c>
+      <c r="N9">
+        <v>0.90956885426704603</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -937,8 +2376,11 @@
       <c r="M10">
         <v>14</v>
       </c>
+      <c r="N10">
+        <v>0.90058860982800604</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -978,8 +2420,11 @@
       <c r="M11">
         <v>15</v>
       </c>
+      <c r="N11">
+        <v>0.89625517822200695</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1019,8 +2464,11 @@
       <c r="M12">
         <v>15</v>
       </c>
+      <c r="N12">
+        <v>0.87783105792691196</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1060,8 +2508,11 @@
       <c r="M13">
         <v>16</v>
       </c>
+      <c r="N13">
+        <v>0.87566193353191002</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1101,8 +2552,11 @@
       <c r="M14">
         <v>18</v>
       </c>
+      <c r="N14">
+        <v>0.85934977806176804</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1142,8 +2596,11 @@
       <c r="M15">
         <v>21</v>
       </c>
+      <c r="N15">
+        <v>0.85117930953997001</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1182,6 +2639,9 @@
       </c>
       <c r="M16">
         <v>24</v>
+      </c>
+      <c r="N16">
+        <v>0.84512724442864295</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1224,6 +2684,9 @@
       <c r="M17">
         <v>25</v>
       </c>
+      <c r="N17">
+        <v>0.83771689546452599</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -1265,6 +2728,9 @@
       <c r="M18">
         <v>21</v>
       </c>
+      <c r="N18">
+        <v>0.81856577629727501</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -1306,6 +2772,9 @@
       <c r="M19">
         <v>19</v>
       </c>
+      <c r="N19">
+        <v>0.80768219996838198</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -1347,6 +2816,9 @@
       <c r="M20">
         <v>26</v>
       </c>
+      <c r="N20">
+        <v>0.79267679632994803</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -1388,6 +2860,9 @@
       <c r="M21">
         <v>24</v>
       </c>
+      <c r="N21">
+        <v>0.79099074960543103</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -1429,6 +2904,9 @@
       <c r="M22">
         <v>26</v>
       </c>
+      <c r="N22">
+        <v>0.78284784567070398</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -1470,6 +2948,9 @@
       <c r="M23">
         <v>27</v>
       </c>
+      <c r="N23">
+        <v>0.76684069007577704</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -1511,6 +2992,9 @@
       <c r="M24">
         <v>32</v>
       </c>
+      <c r="N24">
+        <v>0.73663171653304305</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -1552,6 +3036,9 @@
       <c r="M25">
         <v>28</v>
       </c>
+      <c r="N25">
+        <v>0.732932977520802</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
@@ -1593,6 +3080,9 @@
       <c r="M26">
         <v>27</v>
       </c>
+      <c r="N26">
+        <v>0.73179134371835797</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
@@ -1641,5 +3131,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/yq_test/graph_cz/Rb2Re4/graph_cz_total.xlsx
+++ b/results/yq_test/graph_cz/Rb2Re4/graph_cz_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/graph_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_276964A6DD8A500709E1C3F0505ED87656CD6456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF140E71-FC4A-0B49-8165-E9572469053F}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_276964A6DD8A500709E1C3F0505ED87656CD6456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C826A1A-74B4-204B-A026-8936CBADDA19}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -273,10 +273,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Graph state circuits</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+              <a:t>2-regular graph circuits</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -293,7 +293,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -312,8 +312,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -324,7 +324,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -333,7 +333,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$26</c:f>
               <c:numCache>
@@ -416,8 +416,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$E$2:$E$26</c:f>
               <c:numCache>
@@ -500,8 +500,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB23-D242-99BC-75C7281B777B}"/>
@@ -517,7 +517,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -526,7 +526,91 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$K$2:$K$26</c:f>
               <c:numCache>
@@ -609,8 +693,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EB23-D242-99BC-75C7281B777B}"/>
@@ -626,7 +710,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -635,7 +719,91 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$N$2:$N$26</c:f>
               <c:numCache>
@@ -718,8 +886,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EB23-D242-99BC-75C7281B777B}"/>
@@ -734,14 +902,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1872984704"/>
         <c:axId val="8194031"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1872984704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -766,7 +935,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -779,10 +948,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Qubits</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -799,7 +968,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -837,7 +1006,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -854,12 +1023,9 @@
         </c:txPr>
         <c:crossAx val="8194031"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="5"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="8194031"/>
         <c:scaling>
@@ -890,7 +1056,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -903,10 +1069,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Fidelity</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -923,7 +1089,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -955,7 +1121,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -972,7 +1138,7 @@
         </c:txPr>
         <c:crossAx val="1872984704"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -997,7 +1163,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1616,9 +1782,9 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">

--- a/results/yq_test/graph_cz/Rb2Re4/graph_cz_total.xlsx
+++ b/results/yq_test/graph_cz/Rb2Re4/graph_cz_total.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/graph_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_276964A6DD8A500709E1C3F0505ED87656CD6456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C826A1A-74B4-204B-A026-8936CBADDA19}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_276964A6DD8A500709E1C3F0505ED87656CD6456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDB0080-1725-7A43-ABD6-F2FC008C38CF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
